--- a/Naukri Login.xlsx
+++ b/Naukri Login.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -371,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C231"/>
+  <dimension ref="A1:C232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -2231,6 +2231,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>

--- a/Naukri Login.xlsx
+++ b/Naukri Login.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -371,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C232"/>
+  <dimension ref="A1:C258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -2239,6 +2239,214 @@
         <v>5</v>
       </c>
     </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>4</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>4</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>4</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>4</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>4</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>4</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>4</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>4</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>4</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>4</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>4</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>4</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>

--- a/Naukri Login.xlsx
+++ b/Naukri Login.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr068695\test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A35A744-0E4B-4E5C-8475-91D0BFD3C05F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{662BD0E1-3859-48EC-AD2D-8F472CBCD50A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="2" r:id="rId1"/>
+    <sheet name="Login" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -49,6 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,19 +85,19 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -113,10 +114,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -151,7 +152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,7 +187,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,21 +281,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -311,7 +312,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -363,24 +364,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A320" sqref="A320:B403"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -407,11 +408,19 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
 </worksheet>
 </file>